--- a/src/routes/studentsInfo.xlsx
+++ b/src/routes/studentsInfo.xlsx
@@ -42,9 +42,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,352 +375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>First Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>last Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Birthdate</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Nationality</v>
-      </c>
-      <c r="F1" t="str">
-        <v>National Number</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Mark</v>
-      </c>
-      <c r="H1" t="str">
-        <v>ID</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Ali</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C2" t="str">
-        <v>abc@gmail.com</v>
-      </c>
-      <c r="D2" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F2">
-        <v>100180001</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2" t="str">
-        <v>"60b6a92d2478bf2736ac86e9"</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>ahmad</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C3" t="str">
-        <v>abc@gmail.com</v>
-      </c>
-      <c r="D3" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F3">
-        <v>100180002</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3" t="str">
-        <v>"60b6a92d2478bf2736ac86ea"</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>mousa</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C4" t="str">
-        <v>abc3@gmail.com</v>
-      </c>
-      <c r="D4" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F4">
-        <v>100180003</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4" t="str">
-        <v>"60b6a92d2478bf2736ac86eb"</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ibrahim</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C5" t="str">
-        <v>abc4@gmail.com</v>
-      </c>
-      <c r="D5" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F5">
-        <v>100180004</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5" t="str">
-        <v>"60b6a92d2478bf2736ac86ec"</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>noah</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C6" t="str">
-        <v>abc5@gmail.com</v>
-      </c>
-      <c r="D6" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F6">
-        <v>100180005</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6" t="str">
-        <v>"60b6a92d2478bf2736ac86ed"</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Eisa</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C7" t="str">
-        <v>abc6@gmail.com</v>
-      </c>
-      <c r="D7" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F7">
-        <v>100180006</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7" t="str">
-        <v>"60b6a92d2478bf2736ac86ee"</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Adam</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C8" t="str">
-        <v>abc7@gmail.com</v>
-      </c>
-      <c r="D8" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F8">
-        <v>100180007</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8" t="str">
-        <v>"60b6a92d2478bf2736ac86ef"</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Zakaria</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C9" t="str">
-        <v>abc8@gmail.com</v>
-      </c>
-      <c r="D9" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F9">
-        <v>100180008</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9" t="str">
-        <v>"60b6a92d2478bf2736ac86f0"</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Arabi</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C10" t="str">
-        <v>abc9@gmail.com</v>
-      </c>
-      <c r="D10" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F10">
-        <v>100180009</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="H10" t="str">
-        <v>"60b6a92d2478bf2736ac86f1"</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C11" t="str">
-        <v>abc10@gmail.com</v>
-      </c>
-      <c r="D11" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F11">
-        <v>100180010</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11" t="str">
-        <v>"60b6a92d2478bf2736ac86f2"</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Ismail</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C12" t="str">
-        <v>abc11@gmail.com</v>
-      </c>
-      <c r="D12" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F12">
-        <v>100180011</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12" t="str">
-        <v>"60b6a92d2478bf2736ac86f3"</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Ayoub</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Mohammad</v>
-      </c>
-      <c r="C13" t="str">
-        <v>abc12@gmail.com</v>
-      </c>
-      <c r="D13" s="1">
-        <v>37600</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Jordanian</v>
-      </c>
-      <c r="F13">
-        <v>100180012</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13" t="str">
-        <v>"60b6a92d2478bf2736ac86f4"</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/routes/studentsInfo.xlsx
+++ b/src/routes/studentsInfo.xlsx
@@ -42,8 +42,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,13 +376,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>First Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>last Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Birthdate</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Nationality</v>
+      </c>
+      <c r="F1" t="str">
+        <v>National Number</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Mark</v>
+      </c>
+      <c r="H1" t="str">
+        <v>ID</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Ali</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C2" t="str">
+        <v>abc@gmail.com</v>
+      </c>
+      <c r="D2" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F2">
+        <v>100180001</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>ahmad</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C3" t="str">
+        <v>abcd@gmail.com</v>
+      </c>
+      <c r="D3" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F3">
+        <v>100180002</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>mousa</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C4" t="str">
+        <v>abc3@gmail.com</v>
+      </c>
+      <c r="D4" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F4">
+        <v>100180003</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ibrahim</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C5" t="str">
+        <v>abc4@gmail.com</v>
+      </c>
+      <c r="D5" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F5">
+        <v>100180004</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>noah</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C6" t="str">
+        <v>abc5@gmail.com</v>
+      </c>
+      <c r="D6" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F6">
+        <v>100180005</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Eisa</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C7" t="str">
+        <v>abc6@gmail.com</v>
+      </c>
+      <c r="D7" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F7">
+        <v>100180006</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C8" t="str">
+        <v>abc7@gmail.com</v>
+      </c>
+      <c r="D8" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F8">
+        <v>100180007</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Zakaria</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C9" t="str">
+        <v>abc8@gmail.com</v>
+      </c>
+      <c r="D9" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F9">
+        <v>100180008</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Is'haq</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C10" t="str">
+        <v>abc9@gmail.com</v>
+      </c>
+      <c r="D10" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F10">
+        <v>100180009</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C11" t="str">
+        <v>abc10@gmail.com</v>
+      </c>
+      <c r="D11" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F11">
+        <v>100180010</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Ismail</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C12" t="str">
+        <v>abc11@gmail.com</v>
+      </c>
+      <c r="D12" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F12">
+        <v>100180011</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Ayoub</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Mohammad</v>
+      </c>
+      <c r="C13" t="str">
+        <v>abc12@gmail.com</v>
+      </c>
+      <c r="D13" s="1">
+        <v>37600</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Jordanian</v>
+      </c>
+      <c r="F13">
+        <v>100180012</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
   </ignoredErrors>
 </worksheet>
 </file>